--- a/docs/Battery.xlsx
+++ b/docs/Battery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://langningchen-my.sharepoint.com/personal/langningchen_langningchen_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{338FE152-B913-4F12-9E62-1DF8BD73C87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B609E4D-09A3-42AD-AA0F-F8F0CDAA67E1}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="8_{338FE152-B913-4F12-9E62-1DF8BD73C87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{614498E6-A1D1-41B8-8329-26CFA95F9B6C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{3B43F7A1-9B5C-4C71-ACF6-7ED1A9E67811}"/>
   </bookViews>
@@ -123,7 +123,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -190,49 +190,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$K$1</c:f>
+              <c:f>Sheet1!$B$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.251</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.46300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.86499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.502</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.8149999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.081</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.351</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.7850000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$K$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -260,8 +221,41 @@
                 <c:pt idx="8">
                   <c:v>2698.586956521739</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>3321.217391304348</c:v>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>181500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>208100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>235100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1028,7 +1022,7 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1374,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E5F8B1-C100-4862-9D28-13909315F600}">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C2" sqref="C2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1427,115 +1421,128 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <f>AVERAGE(B3:B48)</f>
+        <f>B1*1000</f>
         <v>0</v>
       </c>
       <c r="C2">
-        <f>AVERAGE(C3:C48)</f>
-        <v>158.91304347826087</v>
+        <f>C1*100000</f>
+        <v>15000</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:N2" si="0">AVERAGE(D3:D48)</f>
-        <v>271.54347826086956</v>
+        <f t="shared" ref="D2:N2" si="0">D1*100000</f>
+        <v>25100</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>507.21739130434781</v>
+        <v>46300</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>956.45652173913038</v>
+        <v>86500</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>1701.7608695652175</v>
+        <v>150200</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>2070.695652173913</v>
+        <v>181500</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>2375.5434782608695</v>
+        <v>208100</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>2698.586956521739</v>
+        <v>235100</v>
       </c>
       <c r="K2">
         <f t="shared" si="0"/>
-        <v>3321.217391304348</v>
+        <v>278500</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>3746.9347826086955</v>
+        <v>300200</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>3888.3695652173915</v>
+        <v>306600</v>
       </c>
       <c r="N2">
-        <f t="shared" si="0"/>
-        <v>4061.1739130434785</v>
+        <f>N1*100000</f>
+        <v>313800</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>AVERAGE(B4:B49)</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>AVERAGE(C4:C49)</f>
+        <v>158.91304347826087</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:N3" si="1">AVERAGE(D4:D49)</f>
+        <v>271.54347826086956</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>507.21739130434781</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>956.45652173913038</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>1701.7608695652175</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>2070.695652173913</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>2375.5434782608695</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>2698.586956521739</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>3321.217391304348</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>3746.9347826086955</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>3888.3695652173915</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>4061.1739130434785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>163</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>271</v>
-      </c>
-      <c r="E3">
-        <v>505</v>
-      </c>
-      <c r="F3">
-        <v>955</v>
-      </c>
-      <c r="G3">
-        <v>1702</v>
-      </c>
-      <c r="H3">
-        <v>2074</v>
-      </c>
-      <c r="I3">
-        <v>2381</v>
-      </c>
-      <c r="J3">
-        <v>2695</v>
-      </c>
-      <c r="K3">
-        <v>3320</v>
-      </c>
-      <c r="L3">
-        <v>3747</v>
-      </c>
-      <c r="M3">
-        <v>3887</v>
-      </c>
-      <c r="N3">
-        <v>4077</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>158</v>
-      </c>
-      <c r="D4">
-        <v>272</v>
       </c>
       <c r="E4">
         <v>505</v>
@@ -1547,25 +1554,25 @@
         <v>1702</v>
       </c>
       <c r="H4">
-        <v>2067</v>
+        <v>2074</v>
       </c>
       <c r="I4">
-        <v>2379</v>
+        <v>2381</v>
       </c>
       <c r="J4">
-        <v>2700</v>
+        <v>2695</v>
       </c>
       <c r="K4">
-        <v>3333</v>
+        <v>3320</v>
       </c>
       <c r="L4">
-        <v>3751</v>
+        <v>3747</v>
       </c>
       <c r="M4">
-        <v>3894</v>
+        <v>3887</v>
       </c>
       <c r="N4">
-        <v>4059</v>
+        <v>4077</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -1573,40 +1580,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D5">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E5">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F5">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G5">
         <v>1702</v>
       </c>
       <c r="H5">
-        <v>2070</v>
+        <v>2067</v>
       </c>
       <c r="I5">
-        <v>2389</v>
+        <v>2379</v>
       </c>
       <c r="J5">
-        <v>2693</v>
+        <v>2700</v>
       </c>
       <c r="K5">
-        <v>3322</v>
+        <v>3333</v>
       </c>
       <c r="L5">
-        <v>3739</v>
+        <v>3751</v>
       </c>
       <c r="M5">
-        <v>3887</v>
+        <v>3894</v>
       </c>
       <c r="N5">
-        <v>4057</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -1614,40 +1621,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E6">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F6">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G6">
         <v>1702</v>
       </c>
       <c r="H6">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="I6">
-        <v>2362</v>
+        <v>2389</v>
       </c>
       <c r="J6">
-        <v>2699</v>
+        <v>2693</v>
       </c>
       <c r="K6">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="L6">
-        <v>3737</v>
+        <v>3739</v>
       </c>
       <c r="M6">
-        <v>3911</v>
+        <v>3887</v>
       </c>
       <c r="N6">
-        <v>4051</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -1655,40 +1662,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D7">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E7">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F7">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="G7">
-        <v>1699</v>
+        <v>1702</v>
       </c>
       <c r="H7">
-        <v>2070</v>
+        <v>2072</v>
       </c>
       <c r="I7">
-        <v>2379</v>
+        <v>2362</v>
       </c>
       <c r="J7">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="K7">
-        <v>3319</v>
+        <v>3323</v>
       </c>
       <c r="L7">
-        <v>3740</v>
+        <v>3737</v>
       </c>
       <c r="M7">
-        <v>3894</v>
+        <v>3911</v>
       </c>
       <c r="N7">
-        <v>4068</v>
+        <v>4051</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -1696,40 +1703,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D8">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E8">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="F8">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="G8">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="H8">
-        <v>2077</v>
+        <v>2070</v>
       </c>
       <c r="I8">
-        <v>2376</v>
+        <v>2379</v>
       </c>
       <c r="J8">
-        <v>2697</v>
+        <v>2701</v>
       </c>
       <c r="K8">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="L8">
-        <v>3748</v>
+        <v>3740</v>
       </c>
       <c r="M8">
-        <v>3870</v>
+        <v>3894</v>
       </c>
       <c r="N8">
-        <v>4021</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -1737,40 +1744,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D9">
         <v>271</v>
       </c>
       <c r="E9">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F9">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="G9">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="H9">
-        <v>2070</v>
+        <v>2077</v>
       </c>
       <c r="I9">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="J9">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="K9">
         <v>3320</v>
       </c>
       <c r="L9">
-        <v>3752</v>
+        <v>3748</v>
       </c>
       <c r="M9">
-        <v>3895</v>
+        <v>3870</v>
       </c>
       <c r="N9">
-        <v>4056</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -1784,16 +1791,16 @@
         <v>271</v>
       </c>
       <c r="E10">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F10">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="G10">
         <v>1702</v>
       </c>
       <c r="H10">
-        <v>2066</v>
+        <v>2070</v>
       </c>
       <c r="I10">
         <v>2377</v>
@@ -1802,16 +1809,16 @@
         <v>2699</v>
       </c>
       <c r="K10">
-        <v>3323</v>
+        <v>3320</v>
       </c>
       <c r="L10">
-        <v>3749</v>
+        <v>3752</v>
       </c>
       <c r="M10">
-        <v>3883</v>
+        <v>3895</v>
       </c>
       <c r="N10">
-        <v>4074</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -1819,40 +1826,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E11">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F11">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G11">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="H11">
-        <v>2071</v>
+        <v>2066</v>
       </c>
       <c r="I11">
-        <v>2375</v>
+        <v>2377</v>
       </c>
       <c r="J11">
-        <v>2706</v>
+        <v>2699</v>
       </c>
       <c r="K11">
         <v>3323</v>
       </c>
       <c r="L11">
-        <v>3765</v>
+        <v>3749</v>
       </c>
       <c r="M11">
-        <v>3884</v>
+        <v>3883</v>
       </c>
       <c r="N11">
-        <v>4044</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -1860,40 +1867,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D12">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E12">
         <v>507</v>
       </c>
       <c r="F12">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="G12">
         <v>1703</v>
       </c>
       <c r="H12">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="I12">
-        <v>2379</v>
+        <v>2375</v>
       </c>
       <c r="J12">
-        <v>2699</v>
+        <v>2706</v>
       </c>
       <c r="K12">
-        <v>3311</v>
+        <v>3323</v>
       </c>
       <c r="L12">
-        <v>3739</v>
+        <v>3765</v>
       </c>
       <c r="M12">
-        <v>3879</v>
+        <v>3884</v>
       </c>
       <c r="N12">
-        <v>4059</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -1901,40 +1908,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D13">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E13">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F13">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="G13">
         <v>1703</v>
       </c>
       <c r="H13">
-        <v>2087</v>
+        <v>2070</v>
       </c>
       <c r="I13">
-        <v>2366</v>
+        <v>2379</v>
       </c>
       <c r="J13">
-        <v>2698</v>
+        <v>2699</v>
       </c>
       <c r="K13">
         <v>3311</v>
       </c>
       <c r="L13">
-        <v>3747</v>
+        <v>3739</v>
       </c>
       <c r="M13">
-        <v>3885</v>
+        <v>3879</v>
       </c>
       <c r="N13">
-        <v>4038</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -1942,40 +1949,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D14">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E14">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F14">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="G14">
-        <v>1698</v>
+        <v>1703</v>
       </c>
       <c r="H14">
-        <v>2072</v>
+        <v>2087</v>
       </c>
       <c r="I14">
-        <v>2376</v>
+        <v>2366</v>
       </c>
       <c r="J14">
-        <v>2693</v>
+        <v>2698</v>
       </c>
       <c r="K14">
-        <v>3326</v>
+        <v>3311</v>
       </c>
       <c r="L14">
-        <v>3743</v>
+        <v>3747</v>
       </c>
       <c r="M14">
-        <v>3903</v>
+        <v>3885</v>
       </c>
       <c r="N14">
-        <v>4095</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -1986,37 +1993,37 @@
         <v>159</v>
       </c>
       <c r="D15">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E15">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F15">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="G15">
-        <v>1704</v>
+        <v>1698</v>
       </c>
       <c r="H15">
         <v>2072</v>
       </c>
       <c r="I15">
-        <v>2365</v>
+        <v>2376</v>
       </c>
       <c r="J15">
-        <v>2697</v>
+        <v>2693</v>
       </c>
       <c r="K15">
-        <v>3320</v>
+        <v>3326</v>
       </c>
       <c r="L15">
-        <v>3751</v>
+        <v>3743</v>
       </c>
       <c r="M15">
-        <v>3887</v>
+        <v>3903</v>
       </c>
       <c r="N15">
-        <v>4059</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -2024,40 +2031,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D16">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E16">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="F16">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="G16">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="H16">
-        <v>2069</v>
+        <v>2072</v>
       </c>
       <c r="I16">
-        <v>2382</v>
+        <v>2365</v>
       </c>
       <c r="J16">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="K16">
-        <v>3323</v>
+        <v>3320</v>
       </c>
       <c r="L16">
         <v>3751</v>
       </c>
       <c r="M16">
-        <v>3886</v>
+        <v>3887</v>
       </c>
       <c r="N16">
-        <v>4062</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.35">
@@ -2065,40 +2072,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D17">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E17">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="F17">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="G17">
-        <v>1702</v>
+        <v>1708</v>
       </c>
       <c r="H17">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="I17">
-        <v>2375</v>
+        <v>2382</v>
       </c>
       <c r="J17">
-        <v>2697</v>
+        <v>2699</v>
       </c>
       <c r="K17">
-        <v>3321</v>
+        <v>3323</v>
       </c>
       <c r="L17">
-        <v>3741</v>
+        <v>3751</v>
       </c>
       <c r="M17">
-        <v>3887</v>
+        <v>3886</v>
       </c>
       <c r="N17">
-        <v>4060</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.35">
@@ -2106,13 +2113,13 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D18">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E18">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="F18">
         <v>956</v>
@@ -2121,25 +2128,25 @@
         <v>1702</v>
       </c>
       <c r="H18">
-        <v>2076</v>
+        <v>2071</v>
       </c>
       <c r="I18">
-        <v>2367</v>
+        <v>2375</v>
       </c>
       <c r="J18">
         <v>2697</v>
       </c>
       <c r="K18">
-        <v>3323</v>
+        <v>3321</v>
       </c>
       <c r="L18">
-        <v>3747</v>
+        <v>3741</v>
       </c>
       <c r="M18">
-        <v>3884</v>
+        <v>3887</v>
       </c>
       <c r="N18">
-        <v>4061</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.35">
@@ -2147,40 +2154,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D19">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E19">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F19">
         <v>956</v>
       </c>
       <c r="G19">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="H19">
-        <v>2070</v>
+        <v>2076</v>
       </c>
       <c r="I19">
-        <v>2378</v>
+        <v>2367</v>
       </c>
       <c r="J19">
-        <v>2700</v>
+        <v>2697</v>
       </c>
       <c r="K19">
-        <v>3320</v>
+        <v>3323</v>
       </c>
       <c r="L19">
-        <v>3736</v>
+        <v>3747</v>
       </c>
       <c r="M19">
-        <v>3891</v>
+        <v>3884</v>
       </c>
       <c r="N19">
-        <v>4052</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.35">
@@ -2191,37 +2198,37 @@
         <v>158</v>
       </c>
       <c r="D20">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E20">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F20">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G20">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="H20">
-        <v>2063</v>
+        <v>2070</v>
       </c>
       <c r="I20">
         <v>2378</v>
       </c>
       <c r="J20">
-        <v>2697</v>
+        <v>2700</v>
       </c>
       <c r="K20">
-        <v>3324</v>
+        <v>3320</v>
       </c>
       <c r="L20">
-        <v>3748</v>
+        <v>3736</v>
       </c>
       <c r="M20">
-        <v>3883</v>
+        <v>3891</v>
       </c>
       <c r="N20">
-        <v>4070</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.35">
@@ -2229,40 +2236,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D21">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E21">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F21">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="G21">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="H21">
-        <v>2072</v>
+        <v>2063</v>
       </c>
       <c r="I21">
         <v>2378</v>
       </c>
       <c r="J21">
-        <v>2696</v>
+        <v>2697</v>
       </c>
       <c r="K21">
-        <v>3326</v>
+        <v>3324</v>
       </c>
       <c r="L21">
-        <v>3750</v>
+        <v>3748</v>
       </c>
       <c r="M21">
-        <v>3891</v>
+        <v>3883</v>
       </c>
       <c r="N21">
-        <v>4062</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.35">
@@ -2270,40 +2277,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D22">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E22">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="F22">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="G22">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="H22">
-        <v>2068</v>
+        <v>2072</v>
       </c>
       <c r="I22">
-        <v>2382</v>
+        <v>2378</v>
       </c>
       <c r="J22">
         <v>2696</v>
       </c>
       <c r="K22">
-        <v>3324</v>
+        <v>3326</v>
       </c>
       <c r="L22">
-        <v>3740</v>
+        <v>3750</v>
       </c>
       <c r="M22">
-        <v>3885</v>
+        <v>3891</v>
       </c>
       <c r="N22">
-        <v>4060</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.35">
@@ -2311,40 +2318,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D23">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E23">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F23">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="G23">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="H23">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="I23">
-        <v>2377</v>
+        <v>2382</v>
       </c>
       <c r="J23">
-        <v>2699</v>
+        <v>2696</v>
       </c>
       <c r="K23">
-        <v>3315</v>
+        <v>3324</v>
       </c>
       <c r="L23">
-        <v>3747</v>
+        <v>3740</v>
       </c>
       <c r="M23">
-        <v>3886</v>
+        <v>3885</v>
       </c>
       <c r="N23">
-        <v>4056</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.35">
@@ -2352,40 +2359,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D24">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E24">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="F24">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="G24">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="H24">
-        <v>2073</v>
+        <v>2069</v>
       </c>
       <c r="I24">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="J24">
-        <v>2698</v>
+        <v>2699</v>
       </c>
       <c r="K24">
-        <v>3327</v>
+        <v>3315</v>
       </c>
       <c r="L24">
-        <v>3740</v>
+        <v>3747</v>
       </c>
       <c r="M24">
-        <v>3882</v>
+        <v>3886</v>
       </c>
       <c r="N24">
-        <v>4045</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.35">
@@ -2393,40 +2400,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D25">
         <v>271</v>
       </c>
       <c r="E25">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F25">
-        <v>971</v>
+        <v>954</v>
       </c>
       <c r="G25">
         <v>1702</v>
       </c>
       <c r="H25">
-        <v>2071</v>
+        <v>2073</v>
       </c>
       <c r="I25">
-        <v>2377</v>
+        <v>2379</v>
       </c>
       <c r="J25">
-        <v>2702</v>
+        <v>2698</v>
       </c>
       <c r="K25">
-        <v>3322</v>
+        <v>3327</v>
       </c>
       <c r="L25">
-        <v>3754</v>
+        <v>3740</v>
       </c>
       <c r="M25">
-        <v>3884</v>
+        <v>3882</v>
       </c>
       <c r="N25">
-        <v>4059</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.35">
@@ -2437,37 +2444,37 @@
         <v>159</v>
       </c>
       <c r="D26">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E26">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F26">
-        <v>959</v>
+        <v>971</v>
       </c>
       <c r="G26">
-        <v>1709</v>
+        <v>1702</v>
       </c>
       <c r="H26">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="I26">
-        <v>2375</v>
+        <v>2377</v>
       </c>
       <c r="J26">
-        <v>2697</v>
+        <v>2702</v>
       </c>
       <c r="K26">
-        <v>3333</v>
+        <v>3322</v>
       </c>
       <c r="L26">
-        <v>3753</v>
+        <v>3754</v>
       </c>
       <c r="M26">
-        <v>3887</v>
+        <v>3884</v>
       </c>
       <c r="N26">
-        <v>4067</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.35">
@@ -2478,37 +2485,37 @@
         <v>159</v>
       </c>
       <c r="D27">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E27">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F27">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="G27">
-        <v>1702</v>
+        <v>1709</v>
       </c>
       <c r="H27">
         <v>2073</v>
       </c>
       <c r="I27">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="J27">
         <v>2697</v>
       </c>
       <c r="K27">
-        <v>3320</v>
+        <v>3333</v>
       </c>
       <c r="L27">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="M27">
-        <v>3895</v>
+        <v>3887</v>
       </c>
       <c r="N27">
-        <v>4070</v>
+        <v>4067</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.35">
@@ -2516,40 +2523,40 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D28">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E28">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F28">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G28">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="H28">
-        <v>2068</v>
+        <v>2073</v>
       </c>
       <c r="I28">
-        <v>2383</v>
+        <v>2377</v>
       </c>
       <c r="J28">
-        <v>2706</v>
+        <v>2697</v>
       </c>
       <c r="K28">
-        <v>3317</v>
+        <v>3320</v>
       </c>
       <c r="L28">
-        <v>3758</v>
+        <v>3754</v>
       </c>
       <c r="M28">
-        <v>3886</v>
+        <v>3895</v>
       </c>
       <c r="N28">
-        <v>4095</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.35">
@@ -2560,37 +2567,37 @@
         <v>158</v>
       </c>
       <c r="D29">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E29">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F29">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G29">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="H29">
-        <v>2063</v>
+        <v>2068</v>
       </c>
       <c r="I29">
-        <v>2365</v>
+        <v>2383</v>
       </c>
       <c r="J29">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="K29">
-        <v>3321</v>
+        <v>3317</v>
       </c>
       <c r="L29">
-        <v>3743</v>
+        <v>3758</v>
       </c>
       <c r="M29">
-        <v>3895</v>
+        <v>3886</v>
       </c>
       <c r="N29">
-        <v>4079</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.35">
@@ -2598,40 +2605,40 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D30">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E30">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F30">
         <v>956</v>
       </c>
       <c r="G30">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="H30">
-        <v>2072</v>
+        <v>2063</v>
       </c>
       <c r="I30">
-        <v>2374</v>
+        <v>2365</v>
       </c>
       <c r="J30">
-        <v>2696</v>
+        <v>2708</v>
       </c>
       <c r="K30">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="L30">
-        <v>3750</v>
+        <v>3743</v>
       </c>
       <c r="M30">
-        <v>3881</v>
+        <v>3895</v>
       </c>
       <c r="N30">
-        <v>4059</v>
+        <v>4079</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.35">
@@ -2639,40 +2646,40 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D31">
         <v>271</v>
       </c>
       <c r="E31">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F31">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="G31">
-        <v>1695</v>
+        <v>1705</v>
       </c>
       <c r="H31">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="I31">
-        <v>2377</v>
+        <v>2374</v>
       </c>
       <c r="J31">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="K31">
-        <v>3327</v>
+        <v>3320</v>
       </c>
       <c r="L31">
-        <v>3748</v>
+        <v>3750</v>
       </c>
       <c r="M31">
-        <v>3893</v>
+        <v>3881</v>
       </c>
       <c r="N31">
-        <v>4066</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.35">
@@ -2680,40 +2687,40 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D32">
         <v>271</v>
       </c>
       <c r="E32">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F32">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="G32">
         <v>1695</v>
       </c>
       <c r="H32">
-        <v>2068</v>
+        <v>2073</v>
       </c>
       <c r="I32">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="J32">
-        <v>2701</v>
+        <v>2698</v>
       </c>
       <c r="K32">
-        <v>3335</v>
+        <v>3327</v>
       </c>
       <c r="L32">
-        <v>3745</v>
+        <v>3748</v>
       </c>
       <c r="M32">
-        <v>3886</v>
+        <v>3893</v>
       </c>
       <c r="N32">
-        <v>4067</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.35">
@@ -2724,37 +2731,37 @@
         <v>159</v>
       </c>
       <c r="D33">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E33">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="F33">
-        <v>955</v>
+        <v>967</v>
       </c>
       <c r="G33">
-        <v>1703</v>
+        <v>1695</v>
       </c>
       <c r="H33">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="I33">
-        <v>2365</v>
+        <v>2378</v>
       </c>
       <c r="J33">
         <v>2701</v>
       </c>
       <c r="K33">
-        <v>3319</v>
+        <v>3335</v>
       </c>
       <c r="L33">
-        <v>3734</v>
+        <v>3745</v>
       </c>
       <c r="M33">
-        <v>3887</v>
+        <v>3886</v>
       </c>
       <c r="N33">
-        <v>4074</v>
+        <v>4067</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.35">
@@ -2765,37 +2772,37 @@
         <v>159</v>
       </c>
       <c r="D34">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E34">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F34">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="G34">
-        <v>1709</v>
+        <v>1703</v>
       </c>
       <c r="H34">
         <v>2071</v>
       </c>
       <c r="I34">
-        <v>2378</v>
+        <v>2365</v>
       </c>
       <c r="J34">
-        <v>2698</v>
+        <v>2701</v>
       </c>
       <c r="K34">
-        <v>3322</v>
+        <v>3319</v>
       </c>
       <c r="L34">
-        <v>3748</v>
+        <v>3734</v>
       </c>
       <c r="M34">
         <v>3887</v>
       </c>
       <c r="N34">
-        <v>4063</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.35">
@@ -2803,40 +2810,40 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D35">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E35">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F35">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="G35">
-        <v>1700</v>
+        <v>1709</v>
       </c>
       <c r="H35">
-        <v>2069</v>
+        <v>2071</v>
       </c>
       <c r="I35">
-        <v>2362</v>
+        <v>2378</v>
       </c>
       <c r="J35">
-        <v>2694</v>
+        <v>2698</v>
       </c>
       <c r="K35">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="L35">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="M35">
-        <v>3891</v>
+        <v>3887</v>
       </c>
       <c r="N35">
-        <v>4039</v>
+        <v>4063</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.35">
@@ -2844,40 +2851,40 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D36">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E36">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F36">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="G36">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="H36">
         <v>2069</v>
       </c>
       <c r="I36">
-        <v>2378</v>
+        <v>2362</v>
       </c>
       <c r="J36">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="K36">
-        <v>3324</v>
+        <v>3321</v>
       </c>
       <c r="L36">
-        <v>3724</v>
+        <v>3749</v>
       </c>
       <c r="M36">
-        <v>3884</v>
+        <v>3891</v>
       </c>
       <c r="N36">
-        <v>4061</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.35">
@@ -2888,34 +2895,34 @@
         <v>159</v>
       </c>
       <c r="D37">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E37">
         <v>507</v>
       </c>
       <c r="F37">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="G37">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="H37">
-        <v>2066</v>
+        <v>2069</v>
       </c>
       <c r="I37">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="J37">
-        <v>2700</v>
+        <v>2696</v>
       </c>
       <c r="K37">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="L37">
-        <v>3740</v>
+        <v>3724</v>
       </c>
       <c r="M37">
-        <v>3894</v>
+        <v>3884</v>
       </c>
       <c r="N37">
         <v>4061</v>
@@ -2926,40 +2933,40 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D38">
         <v>270</v>
       </c>
       <c r="E38">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F38">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G38">
-        <v>1700</v>
+        <v>1704</v>
       </c>
       <c r="H38">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="I38">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="J38">
-        <v>2709</v>
+        <v>2700</v>
       </c>
       <c r="K38">
-        <v>3324</v>
+        <v>3325</v>
       </c>
       <c r="L38">
-        <v>3759</v>
+        <v>3740</v>
       </c>
       <c r="M38">
-        <v>3874</v>
+        <v>3894</v>
       </c>
       <c r="N38">
-        <v>4059</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.35">
@@ -2967,40 +2974,40 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D39">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E39">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F39">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="G39">
-        <v>1695</v>
+        <v>1700</v>
       </c>
       <c r="H39">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="I39">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="J39">
-        <v>2701</v>
+        <v>2709</v>
       </c>
       <c r="K39">
-        <v>3316</v>
+        <v>3324</v>
       </c>
       <c r="L39">
-        <v>3775</v>
+        <v>3759</v>
       </c>
       <c r="M39">
-        <v>3896</v>
+        <v>3874</v>
       </c>
       <c r="N39">
-        <v>4069</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.35">
@@ -3008,40 +3015,40 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D40">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E40">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F40">
-        <v>955</v>
+        <v>966</v>
       </c>
       <c r="G40">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="H40">
-        <v>2067</v>
+        <v>2070</v>
       </c>
       <c r="I40">
-        <v>2375</v>
+        <v>2378</v>
       </c>
       <c r="J40">
-        <v>2700</v>
+        <v>2701</v>
       </c>
       <c r="K40">
-        <v>3320</v>
+        <v>3316</v>
       </c>
       <c r="L40">
-        <v>3753</v>
+        <v>3775</v>
       </c>
       <c r="M40">
-        <v>3881</v>
+        <v>3896</v>
       </c>
       <c r="N40">
-        <v>4077</v>
+        <v>4069</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.35">
@@ -3049,40 +3056,40 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D41">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E41">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F41">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="G41">
-        <v>1704</v>
+        <v>1693</v>
       </c>
       <c r="H41">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="I41">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="J41">
-        <v>2684</v>
+        <v>2700</v>
       </c>
       <c r="K41">
-        <v>3326</v>
+        <v>3320</v>
       </c>
       <c r="L41">
-        <v>3747</v>
+        <v>3753</v>
       </c>
       <c r="M41">
-        <v>3883</v>
+        <v>3881</v>
       </c>
       <c r="N41">
-        <v>4057</v>
+        <v>4077</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.35">
@@ -3090,40 +3097,40 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D42">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E42">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F42">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="G42">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="H42">
-        <v>2076</v>
+        <v>2068</v>
       </c>
       <c r="I42">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="J42">
-        <v>2701</v>
+        <v>2684</v>
       </c>
       <c r="K42">
-        <v>3323</v>
+        <v>3326</v>
       </c>
       <c r="L42">
         <v>3747</v>
       </c>
       <c r="M42">
-        <v>3881</v>
+        <v>3883</v>
       </c>
       <c r="N42">
-        <v>4043</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.35">
@@ -3134,37 +3141,37 @@
         <v>159</v>
       </c>
       <c r="D43">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E43">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F43">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="G43">
-        <v>1704</v>
+        <v>1708</v>
       </c>
       <c r="H43">
-        <v>2070</v>
+        <v>2076</v>
       </c>
       <c r="I43">
-        <v>2364</v>
+        <v>2378</v>
       </c>
       <c r="J43">
-        <v>2698</v>
+        <v>2701</v>
       </c>
       <c r="K43">
         <v>3323</v>
       </c>
       <c r="L43">
-        <v>3750</v>
+        <v>3747</v>
       </c>
       <c r="M43">
-        <v>3892</v>
+        <v>3881</v>
       </c>
       <c r="N43">
-        <v>4063</v>
+        <v>4043</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.35">
@@ -3172,40 +3179,40 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D44">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E44">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F44">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G44">
-        <v>1700</v>
+        <v>1704</v>
       </c>
       <c r="H44">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="I44">
-        <v>2378</v>
+        <v>2364</v>
       </c>
       <c r="J44">
-        <v>2697</v>
+        <v>2698</v>
       </c>
       <c r="K44">
-        <v>3287</v>
+        <v>3323</v>
       </c>
       <c r="L44">
-        <v>3749</v>
+        <v>3750</v>
       </c>
       <c r="M44">
-        <v>3912</v>
+        <v>3892</v>
       </c>
       <c r="N44">
-        <v>4056</v>
+        <v>4063</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.35">
@@ -3213,40 +3220,40 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D45">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E45">
         <v>506</v>
       </c>
       <c r="F45">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="G45">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="H45">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="I45">
-        <v>2375</v>
+        <v>2378</v>
       </c>
       <c r="J45">
-        <v>2701</v>
+        <v>2697</v>
       </c>
       <c r="K45">
-        <v>3320</v>
+        <v>3287</v>
       </c>
       <c r="L45">
-        <v>3726</v>
+        <v>3749</v>
       </c>
       <c r="M45">
-        <v>3884</v>
+        <v>3912</v>
       </c>
       <c r="N45">
-        <v>4068</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.35">
@@ -3260,34 +3267,34 @@
         <v>271</v>
       </c>
       <c r="E46">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F46">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="G46">
-        <v>1694</v>
+        <v>1701</v>
       </c>
       <c r="H46">
         <v>2070</v>
       </c>
       <c r="I46">
-        <v>2380</v>
+        <v>2375</v>
       </c>
       <c r="J46">
-        <v>2698</v>
+        <v>2701</v>
       </c>
       <c r="K46">
-        <v>3324</v>
+        <v>3320</v>
       </c>
       <c r="L46">
-        <v>3717</v>
+        <v>3726</v>
       </c>
       <c r="M46">
-        <v>3888</v>
+        <v>3884</v>
       </c>
       <c r="N46">
-        <v>4059</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.35">
@@ -3301,34 +3308,34 @@
         <v>271</v>
       </c>
       <c r="E47">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="F47">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="G47">
-        <v>1703</v>
+        <v>1694</v>
       </c>
       <c r="H47">
-        <v>2077</v>
+        <v>2070</v>
       </c>
       <c r="I47">
-        <v>2376</v>
+        <v>2380</v>
       </c>
       <c r="J47">
-        <v>2697</v>
+        <v>2698</v>
       </c>
       <c r="K47">
-        <v>3310</v>
+        <v>3324</v>
       </c>
       <c r="L47">
-        <v>3775</v>
+        <v>3717</v>
       </c>
       <c r="M47">
-        <v>3894</v>
+        <v>3888</v>
       </c>
       <c r="N47">
-        <v>4061</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.35">
@@ -3336,39 +3343,80 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D48">
         <v>271</v>
       </c>
       <c r="E48">
+        <v>510</v>
+      </c>
+      <c r="F48">
+        <v>954</v>
+      </c>
+      <c r="G48">
+        <v>1703</v>
+      </c>
+      <c r="H48">
+        <v>2077</v>
+      </c>
+      <c r="I48">
+        <v>2376</v>
+      </c>
+      <c r="J48">
+        <v>2697</v>
+      </c>
+      <c r="K48">
+        <v>3310</v>
+      </c>
+      <c r="L48">
+        <v>3775</v>
+      </c>
+      <c r="M48">
+        <v>3894</v>
+      </c>
+      <c r="N48">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>158</v>
+      </c>
+      <c r="D49">
+        <v>271</v>
+      </c>
+      <c r="E49">
         <v>522</v>
       </c>
-      <c r="F48">
+      <c r="F49">
         <v>956</v>
       </c>
-      <c r="G48">
+      <c r="G49">
         <v>1709</v>
       </c>
-      <c r="H48">
+      <c r="H49">
         <v>2067</v>
       </c>
-      <c r="I48">
+      <c r="I49">
         <v>2378</v>
       </c>
-      <c r="J48">
+      <c r="J49">
         <v>2700</v>
       </c>
-      <c r="K48">
+      <c r="K49">
         <v>3323</v>
       </c>
-      <c r="L48">
+      <c r="L49">
         <v>3753</v>
       </c>
-      <c r="M48">
+      <c r="M49">
         <v>3896</v>
       </c>
-      <c r="N48">
+      <c r="N49">
         <v>4056</v>
       </c>
     </row>
